--- a/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/Phase 1/Sprint1/Burndown chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>Completed effort</t>
@@ -50,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -68,6 +74,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -105,51 +112,200 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,296 +560,334 @@
       <c r="M5" s="3">
         <v>9.0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>10.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>1.0</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="D6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="D10" s="5">
         <v>2.0</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16">
+        <v>7.0</v>
+      </c>
+      <c r="D12" s="5">
         <v>3.0</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ref="E11:N11" si="1">SUM(E6:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="23">
+        <f>SUM(E14:N14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" ref="E14:N14" si="1">SUM(E6:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L14" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N14" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9">
-        <f>SUM(D4:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ref="E12:N12" si="2">D12-E11</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
+    <row r="15">
+      <c r="B15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="26">
+        <f>SUM(D7:D13)</f>
+        <v>17</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" ref="E15:N15" si="2">D15-E14</f>
+        <v>17</v>
+      </c>
+      <c r="F15" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
+        <v>17</v>
+      </c>
+      <c r="G15" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+        <v>17</v>
+      </c>
+      <c r="H15" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+        <v>17</v>
+      </c>
+      <c r="I15" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
+        <v>17</v>
+      </c>
+      <c r="J15" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
+        <v>17</v>
+      </c>
+      <c r="K15" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+        <v>17</v>
+      </c>
+      <c r="L15" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
+        <v>15</v>
+      </c>
+      <c r="M15" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
+        <v>15</v>
+      </c>
+      <c r="N15" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10">
-        <f>D12</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29">
+        <f>D15</f>
+        <v>17</v>
+      </c>
+      <c r="E16" s="30">
         <f>$E$14-($E$14/10*1)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F16" s="30">
         <f>$E$14-($E$14/10*2)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G16" s="30">
         <f>$E$14-($E$14/10*3)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H16" s="30">
         <f>$E$14-($E$14/10*4)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I16" s="30">
         <f>$E$14-($E$14/10*5)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J16" s="30">
         <f>$E$14-($E$14/10*6)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K16" s="30">
         <f>$E$14-($E$14/10*7)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L16" s="30">
         <f>$E$14-($E$14/10*8)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M16" s="30">
         <f>$E$14-($E$14/10*9)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N16" s="31">
         <f>$E$14-($E$14/10*10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="4">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Phase 1/Sprint1/Burndown chart.xlsx
+++ b/Phase 1/Sprint1/Burndown chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>B</t>
@@ -80,7 +86,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +113,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
       </patternFill>
@@ -214,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,6 +257,9 @@
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -258,8 +273,14 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -276,13 +297,13 @@
     <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="11" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -291,14 +312,14 @@
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -581,313 +602,327 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
+      <c r="L6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="11"/>
     </row>
     <row r="7">
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="6">
         <v>2.0</v>
       </c>
       <c r="D7" s="5">
         <v>1.0</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16">
         <v>1.0</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="15"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6">
         <v>3.0</v>
       </c>
       <c r="D8" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="15"/>
+        <v>15.0</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="18">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6">
         <v>4.0</v>
       </c>
       <c r="D9" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="15"/>
+        <v>15.0</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="18">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6">
         <v>5.0</v>
       </c>
       <c r="D10" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="15"/>
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="18">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19">
         <v>6.0</v>
       </c>
       <c r="D11" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="15"/>
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="18">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19">
         <v>7.0</v>
       </c>
       <c r="D12" s="5">
         <v>3.0</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="18">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="20">
         <v>8.0</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="21">
         <v>1.0</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="23">
+      <c r="B14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="26">
         <f>SUM(E14:N14)</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="24">
+        <v>40</v>
+      </c>
+      <c r="E14" s="27">
         <f t="shared" ref="E14:N14" si="1">SUM(E6:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="25">
+        <v>1</v>
+      </c>
+      <c r="N14" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="B15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29">
         <f>SUM(D7:D13)</f>
-        <v>17</v>
-      </c>
-      <c r="E15" s="24">
+        <v>45</v>
+      </c>
+      <c r="E15" s="27">
         <f t="shared" ref="E15:N15" si="2">D15-E14</f>
-        <v>17</v>
-      </c>
-      <c r="F15" s="24">
+        <v>45</v>
+      </c>
+      <c r="F15" s="27">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="G15" s="24">
+        <v>45</v>
+      </c>
+      <c r="G15" s="27">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H15" s="24">
+        <v>45</v>
+      </c>
+      <c r="H15" s="27">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="I15" s="24">
+        <v>45</v>
+      </c>
+      <c r="I15" s="27">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="J15" s="24">
+        <v>45</v>
+      </c>
+      <c r="J15" s="27">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K15" s="24">
+        <v>45</v>
+      </c>
+      <c r="K15" s="27">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="L15" s="24">
+        <v>45</v>
+      </c>
+      <c r="L15" s="27">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="M15" s="24">
+        <v>45</v>
+      </c>
+      <c r="M15" s="27">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N15" s="25">
+        <v>44</v>
+      </c>
+      <c r="N15" s="28">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29">
+      <c r="B16" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32">
         <f>D15</f>
-        <v>17</v>
-      </c>
-      <c r="E16" s="30">
+        <v>45</v>
+      </c>
+      <c r="E16" s="33">
         <f>$E$14-($E$14/10*1)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="33">
         <f>$E$14-($E$14/10*2)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="33">
         <f>$E$14-($E$14/10*3)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="33">
         <f>$E$14-($E$14/10*4)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="33">
         <f>$E$14-($E$14/10*5)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="33">
         <f>$E$14-($E$14/10*6)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="33">
         <f>$E$14-($E$14/10*7)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="33">
         <f>$E$14-($E$14/10*8)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="33">
         <f>$E$14-($E$14/10*9)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="34">
         <f>$E$14-($E$14/10*10)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
